--- a/dictExcel.xlsx
+++ b/dictExcel.xlsx
@@ -1,73 +1,86 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16100" xWindow="240" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>nome</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>d</t>
+    <t>Cesar</t>
   </si>
   <si>
     <t>idade</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>P</t>
+    <t>31</t>
   </si>
   <si>
     <t>sexo</t>
   </si>
   <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>cidade</t>
+  </si>
+  <si>
+    <t>natal</t>
+  </si>
+  <si>
+    <t>Ed</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
     <t>M</t>
   </si>
   <si>
-    <t>cidade</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>sp</t>
+  </si>
+  <si>
+    <t>Eve</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>rj</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -83,16 +96,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -380,67 +392,148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
+      <c r="B16" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>